--- a/ProdFloor/wwwroot/Stops_2020-11-01_2020-11-30+.xlsx
+++ b/ProdFloor/wwwroot/Stops_2020-11-01_2020-11-30+.xlsx
@@ -159,15 +159,25 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="darkGray"/>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="22"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="22"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -175,12 +185,20 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium"/>
+      <right style="medium"/>
+      <top style="medium"/>
+      <bottom style="medium"/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="0"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyBorder="1" applyFill="1" applyAlignment="0"/>
   </cellXfs>
 </styleSheet>
 </file>
@@ -194,55 +212,55 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="L1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
+      <c r="M1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" t="s">
+      <c r="N1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" t="s">
+      <c r="O1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" t="s">
+      <c r="P1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>16</v>
       </c>
     </row>
